--- a/biology/Botanique/Liste_de_la_flore_du_Groenland/Liste_de_la_flore_du_Groenland.xlsx
+++ b/biology/Botanique/Liste_de_la_flore_du_Groenland/Liste_de_la_flore_du_Groenland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La flore du Groenland représente un total de 575 espèces ou 606 taxa (espèces et sous-espèces) de plantes vasculaires, dont treize sont endémiques, et quatre-vingt-sept taxa ont été introduits par l'homme, la plupart s'y étant naturalisés[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La flore du Groenland représente un total de 575 espèces ou 606 taxa (espèces et sous-espèces) de plantes vasculaires, dont treize sont endémiques, et quatre-vingt-sept taxa ont été introduits par l'homme, la plupart s'y étant naturalisés,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Espèces et sous-espèces endémiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(Asteraceae) Antennaria affinis
 (Asteraceae) Antennaria boecherana
@@ -554,7 +568,9 @@
           <t>Apiaceae</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Angelica archangelica ssp. archangelica – native
 Carum carvi – introduite
@@ -586,7 +602,9 @@
           <t>Aspleniaceae</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Asplenium viride – native</t>
         </is>
@@ -616,7 +634,9 @@
           <t>Asteraceae</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Achillea millefolium ssp. millefolium – introduite
 Antennaria affinis – native, endémique (micro-espèce)
@@ -686,7 +706,9 @@
           <t>Betulaceae</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Alnus viridis ssp. crispa – native
 Betula glandulosa – native
@@ -719,7 +741,9 @@
           <t>Boraginaceae</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Asperugo procumbens – introduite
 Mertensia maritima – native
@@ -753,7 +777,9 @@
           <t>Brassicaceae</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Arabidopsis arenicola – native
 Arabis alpina – native
@@ -834,7 +860,9 @@
           <t>Callitrichaceae</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Callitriche anceps – native
 Callitriche hamulata – native
@@ -867,7 +895,9 @@
           <t>Calochortaceae</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Streptopus amplexifolius ssp. americanus – native</t>
         </is>
@@ -897,7 +927,9 @@
           <t>Campanulaceae</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Campanula gieseckiana – native
 Campanula uniflora – native
@@ -931,7 +963,9 @@
           <t>Caryophyllaceae</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Arenaria humifusa – native
 Arenaria pseudofrigida – native
@@ -962,7 +996,7 @@
 Silene latifolia ssp. alba – introduite
 Silene sorensenis – native
 Silene uralensis ssp. uralensis – native
-Silene vulgaris – introduite[3]
+Silene vulgaris – introduite
 Spergula arvensis – introduite
 Spergularia canadensis – native
 Stellaria borealis – native
@@ -1004,7 +1038,9 @@
           <t>Chenopodiaceae</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Atriplex longipes ssp. praecox – native
 Atriplex patula – introduite
@@ -1036,7 +1072,9 @@
           <t>Cornaceae</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Cornus canadensis – native
 Cornus suecica – native
@@ -1068,7 +1106,9 @@
           <t>Crassulaceae</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Rhodiola rosea ssp. rosea – native
 Sedum acre – native
@@ -1101,7 +1141,9 @@
           <t>Cupressaceae</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Juniperus communis ssp. nana – native</t>
         </is>
@@ -1131,7 +1173,9 @@
           <t>Cyperaceae</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Carex acuta – native
 Carex aquatilis ssp. aquatilis – native
@@ -1232,7 +1276,9 @@
           <t>Diapensiaceae</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">Diapensia lapponica ssp. lapponica – native
 			Diapensia lapponica, près d'Upernavik
@@ -1265,7 +1311,9 @@
           <t>Droseraceae</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Drosera rotundifolia – native</t>
         </is>
@@ -1295,7 +1343,9 @@
           <t>Dryopteridaceae</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Dryopteris expansa – native
 Dryopteris filix-mas – native
@@ -1329,7 +1379,9 @@
           <t>Empetraceae</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Empetrum nigrum ssp. hermaphroditum – native</t>
         </is>
@@ -1359,11 +1411,13 @@
           <t>Equisetaceae</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Equisetum arvense ssp. arvense – native
 Equisetum arvense ssp. boreale – native
-Equisetum hyemale – native[4]
+Equisetum hyemale – native
 Equisetum scirpoides – native
 Equisetum sylvaticum – native
 Equisetum variegatum ssp. variegatum – native</t>
@@ -1394,7 +1448,9 @@
           <t>Ericaceae</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">Andromeda polifolia ssp. glaucophylla – native
 Andromeda polifolia ssp. polifolia – native
@@ -1414,7 +1470,7 @@
 Vaccinium oxycoccus ssp. microphyllus – native
 Vaccinium uliginosum ssp. microphyllum – native
 Vaccinium vitis-idaea ssp. minus – native
-×Ledodendron vanhoeffeni – native, endemic (intergeneric hybrid)[5]
+×Ledodendron vanhoeffeni – native, endemic (intergeneric hybrid)
 			Cassiope tetragona dans la région d'Upernavik
 			Harrimanella hypnoides dans la région d'Upernavik
 			Loiseleuria procumbens (azalée rampante) dans la région d'Upernavik
@@ -1448,7 +1504,9 @@
           <t>Fabaceae</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Astragalus alpinus ssp. arcticus – probablement introduite
 Lathyrus japonicus – native
@@ -1488,7 +1546,9 @@
           <t>Gentianaceae</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Gentiana nivalis – native
 Gentianella amarella ssp. acuta – native
@@ -1523,7 +1583,9 @@
           <t>Geraniaceae</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Erodium cicutarium – introduite
 Geranium pusillum – introduite
@@ -1555,7 +1617,9 @@
           <t>Haloragaceae</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Myriophyllum alterniflorum – native
 Myriophyllum sibiricum – (Haloragaceae) - native</t>
@@ -1586,7 +1650,9 @@
           <t>Hippuridaceae</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t>Hippuris vulgaris – native</t>
         </is>
@@ -1616,7 +1682,9 @@
           <t>Iridaceae</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
         <is>
           <t>Sisyrinchium montanum – native</t>
         </is>
@@ -1646,7 +1714,9 @@
           <t>Isoetaceae</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t>Isoetes echinospora ssp. muricata – native
 Isoetes lacustris – native</t>
@@ -1677,7 +1747,9 @@
           <t>Juncaceae</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
         <is>
           <t>Juncus alpinoarticulatus ssp. alpestris – native
 Juncus arcticus ssp. arcticus – native
@@ -1728,7 +1800,9 @@
           <t>Juncaginaceae</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
         <is>
           <t>Triglochin palustris – native</t>
         </is>
@@ -1758,7 +1832,9 @@
           <t>Lamiaceae</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
         <is>
           <t>Lamium amplexicaule – introduite
 Lamium moluccellifolium – introduite
@@ -1791,7 +1867,9 @@
           <t>Lentibulariaceae</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
         <is>
           <t>Pinguicula vulgaris – native
 Utricularia intermedia – native
@@ -1824,7 +1902,9 @@
           <t>Linnaeaceae</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
         <is>
           <t>Linnaea borealis ssp. americana – native</t>
         </is>
@@ -1854,11 +1934,13 @@
           <t>Lycopodiaceae</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
         <is>
           <t xml:space="preserve">Diphasiastrum alpinum – native
 Diphasiastrum complanatum – native
-Diphasiastrum sitchense – native[6]
+Diphasiastrum sitchense – native
 Diphasiastrum × zeilleri – native
 Huperzia arctica – native
 Huperzia selago – native
@@ -1894,7 +1976,9 @@
           <t>Malaceae</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
         <is>
           <t>Sorbus groenlandica – native</t>
         </is>
@@ -1924,7 +2008,9 @@
           <t>Melanthiaceae</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
         <is>
           <t>Tofieldia coccinea – native
 Tofieldia pusilla – native</t>
@@ -1955,7 +2041,9 @@
           <t>Menyanthaceae</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
         <is>
           <t>Menyanthes trifoliata – native</t>
         </is>
@@ -1985,10 +2073,12 @@
           <t>Myrsinaceae</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
         <is>
           <t>Anagallis arvensis – introduite
-Trientalis europaea – native[7]</t>
+Trientalis europaea – native</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2106,9 @@
           <t>Onagraceae</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
         <is>
           <t xml:space="preserve">Epilobium anagallidifolium – native
 Epilobium angustifolium – native
@@ -2055,7 +2147,9 @@
           <t>Ophioglossaceae</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
         <is>
           <t>Botrychium boreale – native
 Botrychium lanceolatum – native
@@ -2091,7 +2185,9 @@
           <t>Orchidaceae</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
         <is>
           <t>Amerorchis rotundifolia – native
 Corallorhiza trifida – native
@@ -2125,7 +2221,9 @@
           <t>Orobanchaceae</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
         <is>
           <t xml:space="preserve">Bartsia alpina – native
 Euphrasia frigida – native
@@ -2138,7 +2236,7 @@
 Pedicularis labradorica – native
 Pedicularis langsdorfii – native
 Pedicularis lapponica – native
-Pedicularis sudetica ssp. albolabiata – native[6],[7]
+Pedicularis sudetica ssp. albolabiata – native,
 Rhinanthus minor ssp. groenlandicus – native
 Rhinanthus minor ssp. minor – native
 			Pedicularis flammea près d'Upernavik
@@ -2170,7 +2268,9 @@
           <t>Papaveraceae</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
         <is>
           <t xml:space="preserve">Papaver dahlianum – native
 Papaver radicatum ssp. labradoricum – native
@@ -2203,7 +2303,9 @@
           <t>Parnassiaceae</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
         <is>
           <t>Parnassia kotzebuei – native</t>
         </is>
@@ -2233,7 +2335,9 @@
           <t>Plantaginaceae</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
         <is>
           <t xml:space="preserve">Plantago coronopus – spontanée
 Plantago lanceolata – introduite
@@ -2243,7 +2347,7 @@
 Veronica alpina ssp. pumila – native
 Veronica arvensis – spontanée
 Veronica fruticans – native
-Veronica officinalis – introduite[3]
+Veronica officinalis – introduite
 Veronica persica – spontanée
 Veronica serpyllifolia ssp. serpyllifolia – introduite
 Veronica wormskjoldii – native
@@ -2276,7 +2380,9 @@
           <t>Plumbaginaceae</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
         <is>
           <t>Armeria maritima ssp. maritima – native
 Armeria maritima ssp. sibirica – native</t>
@@ -2307,9 +2413,11 @@
           <t>Poaceae</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Agrostis canina – native[6]
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Agrostis canina – native
 Agrostis capillaris – introduite
 Agrostis gigantea – native
 Agrostis mertensii – native
@@ -2348,23 +2456,23 @@
 Festuca baffinensis – native
 Festuca brachyphylla – native
 Festuca edlundiae – native
-Festuca groenlandica – native, endémique[6]
+Festuca groenlandica – native, endémique
 Festuca hyperborea – native
 Festuca pratensis – introduite
-Festuca rubra spp. fallax – introduite[6]
+Festuca rubra spp. fallax – introduite
 Festuca rubra ssp. arctica – native
 Festuca rubraspp. rubra – native
 Festuca saximontana – native
 Festuca vivipara ssp. hirsuta – native
 Festuca vivipara ssp. vivipara – native
-Festuca vivipara ssp. glabra – native[6]
+Festuca vivipara ssp. glabra – native
 Hierochloë alpina – native
 Hierochloe odorata ssp. arctica – native
 Leymus arenarius – native
 Leymus mollis ssp. mollis – native
 Lolium perenne – introduite
 Nardus stricta – native
-Phippsia algida ssp. algidiformis – native[7]
+Phippsia algida ssp. algidiformis – native
 Phippsia algida ssp. algida – native
 Phleum alpinum – native
 Phleum pratense ssp. pratense – native
@@ -2386,8 +2494,8 @@
 Poa trivialis – introduite
 Puccinellia andersonii – native
 Puccinellia angustata – native
-Puccinellia bruggemannii – native[6],[7]
-Puccinellia capillaris – native[6]
+Puccinellia bruggemannii – native,
+Puccinellia capillaris – native
 Puccinellia deschampsioides – native
 Puccinellia groenlandica – native, endémique
 Puccinellia laurentiana – native
@@ -2395,7 +2503,7 @@
 Puccinellia nutkaensis – native
 Puccinellia phryganodes – native
 Puccinellia porsildii – native
-Puccinellia pumila – native[6]
+Puccinellia pumila – native
 Puccinellia rosenkrantzii – native, endémique
 Puccinellia tenella ssp. langeana – native
 Puccinellia vaginata – native
@@ -2429,7 +2537,9 @@
           <t>Polemoniaceae</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
         <is>
           <t>Polemonium boreale – native</t>
         </is>
@@ -2459,7 +2569,9 @@
           <t>Polygalaceae</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
         <is>
           <t>Polygala serpyllifolia – probablement introduite</t>
         </is>
@@ -2489,7 +2601,9 @@
           <t>Polygonaceae</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
         <is>
           <t xml:space="preserve">Bistorta vivipara – native
 Fallopia convolvulus – introduite
@@ -2535,7 +2649,9 @@
           <t>Polypodiaceae</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
         <is>
           <t>Polypodium sibiricum – native</t>
         </is>
@@ -2565,7 +2681,9 @@
           <t>Portulacaceae</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
         <is>
           <t>Montia fontana – native</t>
         </is>
@@ -2595,7 +2713,9 @@
           <t>Potamogetonaceae</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
         <is>
           <t>Potamogeton alpinus ssp. tenuifolius – native
 Potamogeton gramineus – native
@@ -2632,7 +2752,9 @@
           <t>Primulaceae</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
         <is>
           <t>Androsace septentrionalis – native
 Primula egaliksensis – native
@@ -2664,7 +2786,9 @@
           <t>Ranunculaceae</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
         <is>
           <t>Anemone richardsonii – native
 Batrachium confervoides – native
@@ -2710,7 +2834,9 @@
           <t>Rosaceae</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
         <is>
           <t xml:space="preserve">Acomastylis rossii – native
 Alchemilla alpina – native
@@ -2773,7 +2899,9 @@
           <t>Rubiaceae</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
         <is>
           <t>Galium album – introduite
 Galium aparine – introduite
@@ -2781,7 +2909,7 @@
 Galium brandegei – native
 Galium triflorum – native
 Galium uliginosum – introduite
-Galium verum – introduite[3]</t>
+Galium verum – introduite</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2937,9 @@
           <t>Salicaceae</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix arctica – native
 Salix arctophila – native
@@ -2848,7 +2978,9 @@
           <t>Saxifragaceae</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysosplenium tetrandrum – native
 Saxifraga aizoides – native
@@ -2901,7 +3033,9 @@
           <t>Scrophulariaceae</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
         <is>
           <t>Limosella aquatica – native
 Linaria vulgaris – introduite
@@ -2933,7 +3067,9 @@
           <t>Selaginellaceae</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
         <is>
           <t>Selaginella rupestris – native
 Selaginella selaginoides – native</t>
@@ -2964,7 +3100,9 @@
           <t>Sparganiaceae</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
         <is>
           <t>Sparganium angustifolium – native
 Sparganium hyperboreum – native</t>
@@ -2995,7 +3133,9 @@
           <t>Thelypteridaceae</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
         <is>
           <t>Phegopteris connectilis – native</t>
         </is>
@@ -3025,7 +3165,9 @@
           <t>Urticaceae</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
         <is>
           <t>Urtica dioica ssp. dioica – introduite
 Urtica urens – introduite</t>
@@ -3056,7 +3198,9 @@
           <t>Violaceae</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
         <is>
           <t>Viola adunca – native
 Viola arvensis – introduite
@@ -3090,7 +3234,9 @@
           <t>Woodsiaceae</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
         <is>
           <t>Athyrium distentifolium ssp. americanum – native
 Athyrium filix-femina ssp. angustum – native
@@ -3127,7 +3273,9 @@
           <t>Zosteraceae</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
         <is>
           <t>Zostera marina – native</t>
         </is>
